--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -7,18 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="clientes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>cliente_id</t>
+  </si>
+  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>direccion</t>
   </si>
   <si>
+    <t>estado</t>
+  </si>
+  <si>
     <t>Ana Pérez</t>
   </si>
   <si>
@@ -58,10 +64,13 @@
     <t>600333444</t>
   </si>
   <si>
-    <t>Calle Sol 123</t>
+    <t>Calle Sol</t>
   </si>
   <si>
     <t>Av. Luna 45</t>
+  </si>
+  <si>
+    <t>Activo</t>
   </si>
 </sst>
 </file>
@@ -419,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,13 +453,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -464,13 +479,19 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -483,6 +504,12 @@
       </c>
       <c r="F3" t="s">
         <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -46,7 +46,7 @@
     <t>Bruno Díaz</t>
   </si>
   <si>
-    <t>12345678A</t>
+    <t>12345678A2</t>
   </si>
   <si>
     <t>98765432B</t>
@@ -58,13 +58,13 @@
     <t>bruno@example.com</t>
   </si>
   <si>
-    <t>600111222</t>
-  </si>
-  <si>
-    <t>600333444</t>
-  </si>
-  <si>
-    <t>Calle Sol</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>678678</t>
+  </si>
+  <si>
+    <t>Calle Sol78</t>
   </si>
   <si>
     <t>Av. Luna 45</t>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -64,7 +64,7 @@
     <t>678678</t>
   </si>
   <si>
-    <t>Calle Sol78</t>
+    <t>Cal</t>
   </si>
   <si>
     <t>Av. Luna 45</t>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -64,7 +64,7 @@
     <t>678678</t>
   </si>
   <si>
-    <t>Cal</t>
+    <t>Calle 12345689</t>
   </si>
   <si>
     <t>Av. Luna 45</t>
